--- a/InputData/endo-learn/BCbVT/Battery Cap by Veh Type.xlsx
+++ b/InputData/endo-learn/BCbVT/Battery Cap by Veh Type.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-us-wipB\InputData\endo-learn\BCbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\endo-learn\BCbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>BCbVT Battery Capacity by Vehicle Type</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t>nonroad vehicle</t>
+  </si>
+  <si>
+    <t>LPG vehicle</t>
+  </si>
+  <si>
+    <t>hydrogen vehicle</t>
+  </si>
+  <si>
+    <t>Battery Capacity (MW*hr/vehicle</t>
   </si>
 </sst>
 </file>
@@ -190,8 +199,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -254,14 +263,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -548,18 +557,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="104.42578125" customWidth="1"/>
+    <col min="2" max="2" width="104.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -567,137 +576,137 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" s="4" t="s">
         <v>38</v>
       </c>
@@ -722,19 +731,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" customWidth="1"/>
+    <col min="2" max="2" width="28.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.7</v>
       </c>
@@ -742,7 +751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>A2/10^3</f>
         <v>6.9999999999999999E-4</v>
@@ -751,13 +760,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>75</v>
       </c>
@@ -765,7 +774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>300</v>
       </c>
@@ -773,7 +782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <f>AVERAGE(A6:A7)</f>
         <v>187.5</v>
@@ -782,7 +791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <f>A8/10^3</f>
         <v>0.1875</v>
@@ -791,13 +800,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>212</v>
       </c>
@@ -805,7 +814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <f>A12/10^3</f>
         <v>0.21199999999999999</v>
@@ -814,13 +823,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>70</v>
       </c>
@@ -828,7 +837,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>90</v>
       </c>
@@ -836,7 +845,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>60</v>
       </c>
@@ -844,7 +853,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="7">
         <f>AVERAGE(A16:A18)</f>
         <v>73.333333333333329</v>
@@ -853,7 +862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <f>A19/10^3</f>
         <v>7.3333333333333334E-2</v>
@@ -862,13 +871,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>18.399999999999999</v>
       </c>
@@ -876,7 +885,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>8.8000000000000007</v>
       </c>
@@ -884,7 +893,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <f>AVERAGE(A23:A24)</f>
         <v>13.6</v>
@@ -893,7 +902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <f>A25/10^3</f>
         <v>1.3599999999999999E-2</v>
@@ -912,20 +921,24 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" customWidth="1"/>
+    <col min="2" max="5" width="18.59765625" customWidth="1"/>
+    <col min="6" max="6" width="22.59765625" customWidth="1"/>
+    <col min="7" max="7" width="18.1328125" customWidth="1"/>
+    <col min="8" max="8" width="19.86328125" customWidth="1"/>
+    <col min="9" max="9" width="18.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
+    <row r="1" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="B1" s="9" t="s">
         <v>46</v>
       </c>
@@ -942,10 +955,16 @@
         <v>50</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -969,8 +988,14 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -993,8 +1018,14 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1016,8 +1047,14 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1039,8 +1076,14 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>44</v>
       </c>
@@ -1062,8 +1105,14 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1084,6 +1133,12 @@
         <v>0</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
@@ -1097,20 +1152,24 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.265625" customWidth="1"/>
+    <col min="2" max="5" width="18.59765625" customWidth="1"/>
+    <col min="6" max="6" width="22.59765625" customWidth="1"/>
+    <col min="7" max="7" width="18.1328125" customWidth="1"/>
+    <col min="8" max="8" width="19.86328125" customWidth="1"/>
+    <col min="9" max="9" width="18.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
+    <row r="1" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="B1" s="9" t="s">
         <v>46</v>
       </c>
@@ -1127,10 +1186,16 @@
         <v>50</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1154,8 +1219,14 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1178,8 +1249,14 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1201,8 +1278,14 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1224,8 +1307,14 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>44</v>
       </c>
@@ -1247,8 +1336,14 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1269,6 +1364,12 @@
         <v>0</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
